--- a/biology/Zoologie/Ampullariidae/Ampullariidae.xlsx
+++ b/biology/Zoologie/Ampullariidae/Ampullariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ampullariidae sont une famille de gastéropodes d'eau douce vivant dans les zones amphibies tropicales et subtropicales. On retrouve aussi certaines espèces en aquariophilie.
 Les Ampullariidae ont la particularité de posséder à la fois des branchies et des poumons.
@@ -512,9 +524,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il existe différents genres dans cette famille[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il existe différents genres dans cette famille
 Afropomus Pilsbry and Bequaert, 1927
 Ampullaria Montfort, 1810
 Asolene Orbigny, 1837
@@ -550,7 +564,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Genera Asolene, Felipponea, Marisa et Pomacea sont originaires du nouveau monde (Amérique du Sud, Amérique centrale, Caraïbes et le sud ouest des USA. Les genera Afropomus, Lanistes et Saulea sont localisés en Afrique.  Le genre Pila est orignaire d'Afrique et d'Asie.
 </t>
@@ -581,7 +597,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampullariidae ou "apple snail" en anglais "escargot-pomme" en français, est un herbivore. Il habite différents écosystèmes: mares, marécages et rivières. Il est particulièrement bien adapté aux régions tropicales caractérisées par une période de sécheresse alternant avec une période de fortes précipitations.
 Ils possèdent un opercule qui leur permet de fermer leur coquille pour éviter qu'ils ne se déshydratent quand ils s'enterrent dans la boue pendant la saison sèche.
